--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_17_30.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_17_30.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2322141.099733674</v>
+        <v>2319889.020022467</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283191</v>
+        <v>416855.1052283185</v>
       </c>
     </row>
     <row r="9">
@@ -659,16 +659,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>63.25786276724509</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>114.4918089738218</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
         <v>410.9217256534534</v>
@@ -722,10 +722,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -820,22 +820,22 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -871,10 +871,10 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
-        <v>113.3018991922773</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>158.2598945289029</v>
       </c>
     </row>
     <row r="5">
@@ -893,16 +893,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>55.20265719668491</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>6.876045741711437</v>
@@ -914,7 +914,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,19 +944,19 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881758</v>
+        <v>82.99473116157577</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -990,10 +990,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H6" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247631</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S6" t="n">
         <v>128.1435076414547</v>
@@ -1051,10 +1051,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>66.23125412673276</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -1063,10 +1063,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1099,28 +1099,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S7" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>97.66568238532271</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1130,13 +1130,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>128.2538703177672</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -1145,13 +1145,13 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>410.9217256534534</v>
+        <v>10.92172565345345</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,16 +1181,16 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U8" t="n">
-        <v>177.2979137777587</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -1227,10 +1227,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H9" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I9" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S9" t="n">
         <v>128.1435076414547</v>
@@ -1288,22 +1288,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
         <v>144.7550149143208</v>
@@ -1339,16 +1339,16 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>42.67804628306391</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>38.26221019674264</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -1382,7 +1382,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187866</v>
+        <v>409.803338518787</v>
       </c>
       <c r="H11" t="n">
         <v>283.1540821444137</v>
@@ -1418,10 +1418,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576155</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
         <v>250.9057009881286</v>
@@ -1528,22 +1528,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>120.7871326503986</v>
       </c>
       <c r="D13" t="n">
-        <v>70.3003498310151</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1585,7 +1585,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -1619,7 +1619,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187866</v>
+        <v>409.803338518787</v>
       </c>
       <c r="H14" t="n">
         <v>283.1540821444137</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1664,7 +1664,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701341</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -1765,25 +1765,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>18.16423677622376</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>121.8000472740351</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1819,7 +1819,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1856,7 +1856,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187868</v>
       </c>
       <c r="H17" t="n">
         <v>283.1540821444137</v>
@@ -2005,22 +2005,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>99.97427419833815</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2062,10 +2062,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>222.1774156618439</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2090,7 +2090,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417109</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
         <v>409.8033385187866</v>
@@ -2242,22 +2242,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>21.90286287505374</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2290,10 +2290,10 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>5.890337106877586</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2479,22 +2479,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>113.6427030833208</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,19 +2521,19 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -2542,7 +2542,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>22.5488180434315</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2716,22 +2716,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>27.0291980517616</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2773,10 +2773,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>154.8277789621937</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -2804,7 +2804,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187879</v>
       </c>
       <c r="H29" t="n">
         <v>283.1540821444137</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2858,7 +2858,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560531</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="30">
@@ -2962,10 +2962,10 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2995,13 +2995,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>71.79687029690538</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
         <v>286.1844743892441</v>
@@ -3016,7 +3016,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>31.83025205764035</v>
       </c>
     </row>
     <row r="32">
@@ -3044,7 +3044,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H32" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444152</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3077,10 +3077,10 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T32" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U32" t="n">
         <v>250.9057009881286</v>
@@ -3184,22 +3184,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>139.511541534052</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>116.9323399797388</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>140.2947128462239</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3241,7 +3241,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3278,7 +3278,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>409.8033385187866</v>
+        <v>409.803338518787</v>
       </c>
       <c r="H35" t="n">
         <v>283.1540821444137</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3424,25 +3424,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>121.8000472740351</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3478,7 +3478,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>141.5502843483913</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3512,7 +3512,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417109</v>
       </c>
       <c r="G38" t="n">
         <v>409.8033385187866</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3664,10 +3664,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>1.799772605714818</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -3676,10 +3676,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,13 +3706,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>68.82097448421571</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
         <v>286.1844743892441</v>
@@ -3727,7 +3727,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3901,22 +3901,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>20.88994825141629</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,10 +3943,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
         <v>217.4054503272883</v>
@@ -3955,7 +3955,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
-        <v>247.422442654656</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4132,19 +4132,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>126.9263824507421</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -4153,7 +4153,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>62.6472505928856</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4304,16 +4304,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1681.836054204828</v>
+        <v>1698.50962791956</v>
       </c>
       <c r="C2" t="n">
-        <v>1617.939223126803</v>
+        <v>1329.547110979148</v>
       </c>
       <c r="D2" t="n">
-        <v>1617.939223126803</v>
+        <v>1213.898819086399</v>
       </c>
       <c r="E2" t="n">
-        <v>1232.150970528558</v>
+        <v>828.1105664881544</v>
       </c>
       <c r="F2" t="n">
         <v>821.1650657389509</v>
@@ -4325,31 +4325,31 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810564</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R2" t="n">
         <v>3325.605821609171</v>
@@ -4358,22 +4358,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T2" t="n">
-        <v>3009.337405520489</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U2" t="n">
-        <v>2755.806928794325</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V2" t="n">
         <v>2424.744041450754</v>
       </c>
       <c r="W2" t="n">
-        <v>2071.97538618064</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="X2" t="n">
-        <v>2071.97538618064</v>
+        <v>1698.50962791956</v>
       </c>
       <c r="Y2" t="n">
-        <v>1681.836054204828</v>
+        <v>1698.50962791956</v>
       </c>
     </row>
     <row r="3">
@@ -4398,7 +4398,7 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G3" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H3" t="n">
         <v>85.51940803064547</v>
@@ -4413,7 +4413,7 @@
         <v>398.4535849031479</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158131</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M3" t="n">
         <v>1212.428070438129</v>
@@ -4462,28 +4462,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>679.1346335501037</v>
+        <v>310.7277411117484</v>
       </c>
       <c r="C4" t="n">
-        <v>679.1346335501037</v>
+        <v>310.7277411117484</v>
       </c>
       <c r="D4" t="n">
-        <v>529.0179941377679</v>
+        <v>310.7277411117484</v>
       </c>
       <c r="E4" t="n">
-        <v>381.1049005553748</v>
+        <v>310.7277411117484</v>
       </c>
       <c r="F4" t="n">
-        <v>234.2149530574645</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="G4" t="n">
-        <v>66.51211643218343</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="H4" t="n">
-        <v>66.51211643218343</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J4" t="n">
         <v>111.634748879119</v>
@@ -4519,19 +4519,19 @@
         <v>1424.011591242373</v>
       </c>
       <c r="U4" t="n">
-        <v>1309.565228421891</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="V4" t="n">
-        <v>1309.565228421891</v>
+        <v>880.2242361621296</v>
       </c>
       <c r="W4" t="n">
-        <v>1309.565228421891</v>
+        <v>880.2242361621296</v>
       </c>
       <c r="X4" t="n">
-        <v>1081.575677523874</v>
+        <v>652.2346852641123</v>
       </c>
       <c r="Y4" t="n">
-        <v>860.7830983803434</v>
+        <v>492.3762059419881</v>
       </c>
     </row>
     <row r="5">
@@ -4541,13 +4541,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1252.833343223197</v>
+        <v>1941.127034633561</v>
       </c>
       <c r="C5" t="n">
-        <v>883.8708262827856</v>
+        <v>1572.164517693149</v>
       </c>
       <c r="D5" t="n">
-        <v>883.8708262827856</v>
+        <v>1213.898819086399</v>
       </c>
       <c r="E5" t="n">
         <v>828.1105664881544</v>
@@ -4562,55 +4562,55 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810564</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136266</v>
+        <v>3241.772759829801</v>
       </c>
       <c r="T5" t="n">
-        <v>3009.337405520489</v>
+        <v>3035.795012214023</v>
       </c>
       <c r="U5" t="n">
-        <v>2755.806928794325</v>
+        <v>3035.795012214023</v>
       </c>
       <c r="V5" t="n">
-        <v>2755.806928794325</v>
+        <v>2704.732124870452</v>
       </c>
       <c r="W5" t="n">
-        <v>2403.038273524211</v>
+        <v>2704.732124870452</v>
       </c>
       <c r="X5" t="n">
-        <v>2029.572515263131</v>
+        <v>2331.266366609372</v>
       </c>
       <c r="Y5" t="n">
-        <v>1639.433183287319</v>
+        <v>1941.127034633561</v>
       </c>
     </row>
     <row r="6">
@@ -4620,34 +4620,34 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811075</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999805</v>
       </c>
       <c r="D6" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387292</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332737</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601587</v>
       </c>
       <c r="G6" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927768</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064547</v>
+        <v>85.51940803064433</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J6" t="n">
         <v>160.1893859228007</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L6" t="n">
         <v>765.151745215813</v>
@@ -4662,31 +4662,31 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125855</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619335</v>
       </c>
       <c r="T6" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297191</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431606</v>
       </c>
       <c r="V6" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199864</v>
       </c>
       <c r="W6" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471662</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266129</v>
       </c>
       <c r="Y6" t="n">
         <v>1109.759191501176</v>
@@ -4699,40 +4699,40 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>848.0708164780106</v>
+        <v>431.4421061205817</v>
       </c>
       <c r="C7" t="n">
-        <v>679.1346335501037</v>
+        <v>364.5418494269122</v>
       </c>
       <c r="D7" t="n">
-        <v>529.0179941377679</v>
+        <v>214.4252100145765</v>
       </c>
       <c r="E7" t="n">
-        <v>381.1049005553748</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="F7" t="n">
-        <v>234.2149530574645</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="G7" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H7" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J7" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K7" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L7" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M7" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N7" t="n">
         <v>1317.747152581905</v>
@@ -4744,31 +4744,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q7" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R7" t="n">
-        <v>1837.464090846021</v>
+        <v>1837.46409084602</v>
       </c>
       <c r="S7" t="n">
         <v>1645.778206672847</v>
       </c>
       <c r="T7" t="n">
-        <v>1645.778206672847</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U7" t="n">
-        <v>1645.778206672847</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="V7" t="n">
-        <v>1547.126002243228</v>
+        <v>880.2242361621292</v>
       </c>
       <c r="W7" t="n">
-        <v>1257.708832206268</v>
+        <v>880.2242361621292</v>
       </c>
       <c r="X7" t="n">
-        <v>1029.71928130825</v>
+        <v>652.2346852641118</v>
       </c>
       <c r="Y7" t="n">
-        <v>1029.71928130825</v>
+        <v>431.4421061205817</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1643.543434242328</v>
+        <v>1308.370295943747</v>
       </c>
       <c r="C8" t="n">
-        <v>1274.580917301916</v>
+        <v>939.4077790033352</v>
       </c>
       <c r="D8" t="n">
-        <v>916.3152186951659</v>
+        <v>809.8584150459947</v>
       </c>
       <c r="E8" t="n">
-        <v>530.5269660969217</v>
+        <v>424.0701624477504</v>
       </c>
       <c r="F8" t="n">
-        <v>523.5814653477182</v>
+        <v>417.1246616985469</v>
       </c>
       <c r="G8" t="n">
-        <v>108.5090151927147</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H8" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810564</v>
+        <v>589.210621081055</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S8" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T8" t="n">
-        <v>3325.605821609171</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U8" t="n">
-        <v>3146.517019813456</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V8" t="n">
-        <v>3146.517019813456</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W8" t="n">
-        <v>2793.748364543341</v>
+        <v>2071.975386180638</v>
       </c>
       <c r="X8" t="n">
-        <v>2420.282606282261</v>
+        <v>1698.509627919559</v>
       </c>
       <c r="Y8" t="n">
-        <v>2030.14327430645</v>
+        <v>1308.370295943747</v>
       </c>
     </row>
     <row r="9">
@@ -4878,16 +4878,16 @@
         <v>85.51940803064554</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J9" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228005</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031476</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158135</v>
+        <v>765.1517452158129</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
@@ -4936,40 +4936,40 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>679.6952191369614</v>
+        <v>380.4321398396066</v>
       </c>
       <c r="C10" t="n">
-        <v>510.7590362090546</v>
+        <v>380.4321398396066</v>
       </c>
       <c r="D10" t="n">
-        <v>360.6423967967188</v>
+        <v>380.4321398396066</v>
       </c>
       <c r="E10" t="n">
-        <v>212.7293032143257</v>
+        <v>380.4321398396066</v>
       </c>
       <c r="F10" t="n">
-        <v>212.7293032143257</v>
+        <v>380.4321398396066</v>
       </c>
       <c r="G10" t="n">
-        <v>212.7293032143257</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J10" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K10" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L10" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M10" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N10" t="n">
         <v>1317.747152581905</v>
@@ -4981,31 +4981,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q10" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R10" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="S10" t="n">
-        <v>1927.294548088493</v>
+        <v>1884.185410428832</v>
       </c>
       <c r="T10" t="n">
-        <v>1927.294548088493</v>
+        <v>1662.418794998358</v>
       </c>
       <c r="U10" t="n">
-        <v>1638.191681214136</v>
+        <v>1373.315928124002</v>
       </c>
       <c r="V10" t="n">
-        <v>1599.542984045709</v>
+        <v>1118.631439918115</v>
       </c>
       <c r="W10" t="n">
-        <v>1310.125814008749</v>
+        <v>829.2142698811541</v>
       </c>
       <c r="X10" t="n">
-        <v>1082.136263110731</v>
+        <v>601.2247189831368</v>
       </c>
       <c r="Y10" t="n">
-        <v>861.3436839672012</v>
+        <v>380.4321398396066</v>
       </c>
     </row>
     <row r="11">
@@ -5018,7 +5018,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D11" t="n">
         <v>1590.547811004713</v>
@@ -5027,22 +5027,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G11" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192605</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075807</v>
+        <v>852.852361107581</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
@@ -5051,28 +5051,28 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V11" t="n">
         <v>3820.749612123003</v>
@@ -5103,7 +5103,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5112,22 +5112,22 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468471</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="L12" t="n">
-        <v>710.2486053718725</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="M12" t="n">
-        <v>1307.627092998424</v>
+        <v>680.0291294438171</v>
       </c>
       <c r="N12" t="n">
         <v>1307.627092998424</v>
@@ -5173,49 +5173,49 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>768.53808894596</v>
+        <v>513.853600740073</v>
       </c>
       <c r="C13" t="n">
-        <v>768.53808894596</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D13" t="n">
-        <v>697.5276345711973</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E13" t="n">
-        <v>549.6145409888042</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="F13" t="n">
-        <v>402.7245934908938</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="G13" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853363</v>
       </c>
       <c r="Q13" t="n">
         <v>2446.963083580262</v>
@@ -5233,16 +5233,16 @@
         <v>1688.385853854708</v>
       </c>
       <c r="V13" t="n">
-        <v>1688.385853854708</v>
+        <v>1433.701365648821</v>
       </c>
       <c r="W13" t="n">
-        <v>1398.968683817747</v>
+        <v>1144.28419561186</v>
       </c>
       <c r="X13" t="n">
-        <v>1170.97913291973</v>
+        <v>916.2946447138429</v>
       </c>
       <c r="Y13" t="n">
-        <v>950.1865537761997</v>
+        <v>695.5020655703128</v>
       </c>
     </row>
     <row r="14">
@@ -5255,7 +5255,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D14" t="n">
         <v>1590.547811004713</v>
@@ -5264,19 +5264,19 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797182</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K14" t="n">
         <v>852.8523611075809</v>
@@ -5291,34 +5291,34 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5340,7 +5340,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5349,28 +5349,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273902</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J15" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="K15" t="n">
-        <v>579.1554649516142</v>
+        <v>315.9123021921476</v>
       </c>
       <c r="L15" t="n">
-        <v>1074.481071167373</v>
+        <v>315.9123021921476</v>
       </c>
       <c r="M15" t="n">
-        <v>1671.859558793925</v>
+        <v>913.2907898186995</v>
       </c>
       <c r="N15" t="n">
-        <v>2299.457522348532</v>
+        <v>1540.888753373306</v>
       </c>
       <c r="O15" t="n">
-        <v>2516.421633107662</v>
+        <v>2092.798483612593</v>
       </c>
       <c r="P15" t="n">
         <v>2516.421633107662</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>802.9288273958734</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C16" t="n">
-        <v>633.9926444679666</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="D16" t="n">
-        <v>483.8760050556308</v>
+        <v>363.7369613277359</v>
       </c>
       <c r="E16" t="n">
-        <v>335.9629114732377</v>
+        <v>363.7369613277359</v>
       </c>
       <c r="F16" t="n">
-        <v>335.9629114732377</v>
+        <v>216.8470138298256</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578601</v>
+        <v>216.8470138298256</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U16" t="n">
-        <v>1977.461080510508</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V16" t="n">
-        <v>1722.776592304621</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W16" t="n">
-        <v>1433.359422267661</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X16" t="n">
-        <v>1205.369871369643</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y16" t="n">
-        <v>984.5772922261132</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="17">
@@ -5534,7 +5534,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R17" t="n">
         <v>4690.833152398593</v>
@@ -5589,22 +5589,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K18" t="n">
-        <v>245.2306927803937</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L18" t="n">
-        <v>740.5562989961525</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M18" t="n">
-        <v>1231.938859683105</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="N18" t="n">
-        <v>1859.536823237711</v>
+        <v>1550.665004989558</v>
       </c>
       <c r="O18" t="n">
         <v>1859.536823237711</v>
@@ -5647,25 +5647,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>806.8386896933887</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C19" t="n">
-        <v>637.9025067654818</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D19" t="n">
-        <v>637.9025067654818</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E19" t="n">
-        <v>489.9894131830887</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F19" t="n">
-        <v>343.0994656851783</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
@@ -5710,13 +5710,13 @@
         <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1433.701365648819</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>1209.279733667159</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>988.4871545236284</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="20">
@@ -5732,13 +5732,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G20" t="n">
         <v>379.8308874362686</v>
@@ -5747,22 +5747,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
         <v>3640.42229106801</v>
@@ -5826,25 +5826,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K21" t="n">
-        <v>579.1554649516142</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L21" t="n">
-        <v>1074.481071167373</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="M21" t="n">
-        <v>1540.888753373307</v>
+        <v>1025.119922845744</v>
       </c>
       <c r="N21" t="n">
-        <v>1540.888753373307</v>
+        <v>1652.717886400351</v>
       </c>
       <c r="O21" t="n">
-        <v>2092.798483612594</v>
+        <v>2204.627616639638</v>
       </c>
       <c r="P21" t="n">
         <v>2516.421633107662</v>
@@ -5884,25 +5884,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1016.58045691144</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C22" t="n">
-        <v>847.6442739835331</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D22" t="n">
-        <v>697.5276345711974</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E22" t="n">
-        <v>549.6145409888043</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F22" t="n">
-        <v>402.7245934908939</v>
+        <v>198.027470314254</v>
       </c>
       <c r="G22" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
@@ -5938,22 +5938,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2191.112710026075</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>2191.112710026075</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1936.428221820188</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1647.011051783227</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>1419.02150088521</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>1198.22892174168</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -5966,61 +5966,61 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.773653616862</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362693</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
         <v>3820.749612123003</v>
@@ -6063,31 +6063,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>95.58405025273903</v>
+        <v>150.8995423128888</v>
       </c>
       <c r="K24" t="n">
-        <v>429.5088224239596</v>
+        <v>484.8243144841094</v>
       </c>
       <c r="L24" t="n">
-        <v>924.8344286397182</v>
+        <v>980.1499206998682</v>
       </c>
       <c r="M24" t="n">
-        <v>1522.21291626627</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="N24" t="n">
-        <v>1522.21291626627</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O24" t="n">
-        <v>1859.536823237711</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P24" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>931.4710609784063</v>
+        <v>768.5380889459586</v>
       </c>
       <c r="C25" t="n">
-        <v>762.5348780504994</v>
+        <v>599.6019060180517</v>
       </c>
       <c r="D25" t="n">
-        <v>612.4182386381636</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E25" t="n">
-        <v>464.5051450557705</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F25" t="n">
-        <v>317.6151975578602</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578602</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T25" t="n">
-        <v>2197.062545487567</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U25" t="n">
-        <v>1907.987318831765</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V25" t="n">
-        <v>1653.302830625878</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="W25" t="n">
-        <v>1363.885660588917</v>
+        <v>1398.968683817746</v>
       </c>
       <c r="X25" t="n">
-        <v>1135.8961096909</v>
+        <v>1170.979132919728</v>
       </c>
       <c r="Y25" t="n">
-        <v>1113.119525808646</v>
+        <v>950.1865537761984</v>
       </c>
     </row>
     <row r="26">
@@ -6200,43 +6200,43 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
         <v>3640.422291068009</v>
@@ -6257,19 +6257,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="27">
@@ -6300,28 +6300,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L27" t="n">
-        <v>1074.481071167373</v>
+        <v>943.5102657467545</v>
       </c>
       <c r="M27" t="n">
-        <v>1671.859558793925</v>
+        <v>1540.888753373306</v>
       </c>
       <c r="N27" t="n">
-        <v>1859.536823237711</v>
+        <v>1540.888753373306</v>
       </c>
       <c r="O27" t="n">
-        <v>1859.536823237711</v>
+        <v>2092.798483612593</v>
       </c>
       <c r="P27" t="n">
-        <v>2283.159972732779</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q27" t="n">
         <v>2516.421633107662</v>
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>874.8686257536381</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C28" t="n">
-        <v>705.9324428257312</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D28" t="n">
-        <v>555.8158034133954</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E28" t="n">
-        <v>407.9027098310023</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="F28" t="n">
-        <v>261.0127623330919</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="G28" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797706</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M28" t="n">
-        <v>1248.150240910805</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570814</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279799</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P28" t="n">
-        <v>2327.764848853357</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.963083580257</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.917379832659</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487564</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510505</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854702</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.701365648815</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W28" t="n">
-        <v>1433.701365648815</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X28" t="n">
-        <v>1277.309669727408</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y28" t="n">
-        <v>1056.517090583878</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="29">
@@ -6437,76 +6437,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551876</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611465</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168625</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.28515749258</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466575</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123004</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.98095685289</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.51519859181</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615998</v>
       </c>
     </row>
     <row r="30">
@@ -6525,7 +6525,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F30" t="n">
         <v>314.2396613568978</v>
@@ -6534,34 +6534,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273909</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K30" t="n">
-        <v>245.2306927803937</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L30" t="n">
-        <v>740.5562989961525</v>
+        <v>710.248605371872</v>
       </c>
       <c r="M30" t="n">
-        <v>740.5562989961525</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N30" t="n">
-        <v>1368.154262550759</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O30" t="n">
-        <v>1920.063992790046</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P30" t="n">
-        <v>2343.687142285114</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q30" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>727.9786782557277</v>
+        <v>702.4944101284095</v>
       </c>
       <c r="C31" t="n">
-        <v>559.0424953278208</v>
+        <v>533.5582272005026</v>
       </c>
       <c r="D31" t="n">
-        <v>408.925855915485</v>
+        <v>383.4415877881669</v>
       </c>
       <c r="E31" t="n">
-        <v>261.0127623330919</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F31" t="n">
-        <v>261.0127623330919</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G31" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279797</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P31" t="n">
-        <v>2327.764848853356</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.963083580255</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.963083580255</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2264.10824923516</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T31" t="n">
-        <v>2191.586158026164</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U31" t="n">
-        <v>1902.510931370362</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V31" t="n">
-        <v>1647.826443164475</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W31" t="n">
-        <v>1358.409273127515</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X31" t="n">
-        <v>1130.419722229497</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y31" t="n">
-        <v>909.6271430859674</v>
+        <v>884.1428749586493</v>
       </c>
     </row>
     <row r="32">
@@ -6674,34 +6674,34 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551876</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611465</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004715</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406471</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168629</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362701</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192605</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111726</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332388</v>
@@ -6713,37 +6713,37 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.28515749258</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466575</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123004</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.98095685289</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.51519859181</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615998</v>
       </c>
     </row>
     <row r="33">
@@ -6762,7 +6762,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F33" t="n">
         <v>314.2396613568978</v>
@@ -6771,25 +6771,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273909</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K33" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L33" t="n">
-        <v>1074.481071167373</v>
+        <v>634.5603720565524</v>
       </c>
       <c r="M33" t="n">
-        <v>1074.481071167373</v>
+        <v>1231.938859683104</v>
       </c>
       <c r="N33" t="n">
-        <v>1307.627092998424</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O33" t="n">
         <v>1859.536823237711</v>
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>984.5772922261132</v>
+        <v>554.5813165460164</v>
       </c>
       <c r="C34" t="n">
-        <v>815.6411092982063</v>
+        <v>385.6451336181095</v>
       </c>
       <c r="D34" t="n">
-        <v>697.5276345711974</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="E34" t="n">
-        <v>549.6145409888043</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F34" t="n">
-        <v>402.7245934908939</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G34" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R34" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U34" t="n">
-        <v>1977.461080510508</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V34" t="n">
-        <v>1722.776592304621</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W34" t="n">
-        <v>1433.359422267661</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X34" t="n">
-        <v>1205.369871369643</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y34" t="n">
-        <v>984.5772922261132</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="35">
@@ -6914,7 +6914,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D35" t="n">
         <v>1590.547811004713</v>
@@ -6923,61 +6923,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192605</v>
       </c>
       <c r="J35" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.852361107581</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q35" t="n">
         <v>4562.265728852256</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -6999,7 +6999,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7008,34 +7008,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J36" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>577.3880777468471</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L36" t="n">
-        <v>1072.713683962606</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M36" t="n">
-        <v>1072.713683962606</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="N36" t="n">
-        <v>1344.266747951538</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O36" t="n">
-        <v>1896.176478190825</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P36" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q36" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>659.9487421954783</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C37" t="n">
-        <v>491.0125592675714</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="D37" t="n">
-        <v>491.0125592675714</v>
+        <v>363.7369613277359</v>
       </c>
       <c r="E37" t="n">
-        <v>343.0994656851783</v>
+        <v>363.7369613277359</v>
       </c>
       <c r="F37" t="n">
-        <v>343.0994656851783</v>
+        <v>216.8470138298256</v>
       </c>
       <c r="G37" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R37" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U37" t="n">
-        <v>1834.480995310113</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V37" t="n">
-        <v>1579.796507104226</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W37" t="n">
-        <v>1290.379337067265</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X37" t="n">
-        <v>1062.389786169248</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y37" t="n">
-        <v>841.597207025718</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="38">
@@ -7154,10 +7154,10 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
         <v>793.7736536168611</v>
@@ -7169,13 +7169,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7251,28 +7251,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K39" t="n">
-        <v>577.3880777468471</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L39" t="n">
-        <v>1072.713683962606</v>
+        <v>923.0670414349513</v>
       </c>
       <c r="M39" t="n">
-        <v>1670.092171589158</v>
+        <v>923.0670414349513</v>
       </c>
       <c r="N39" t="n">
-        <v>1670.092171589158</v>
+        <v>1550.665004989558</v>
       </c>
       <c r="O39" t="n">
-        <v>2222.001901828445</v>
+        <v>2102.574735228845</v>
       </c>
       <c r="P39" t="n">
-        <v>2283.159972732779</v>
+        <v>2526.197884723913</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2526.197884723913</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>951.777212765616</v>
+        <v>513.8536007400699</v>
       </c>
       <c r="C40" t="n">
-        <v>782.8410298377091</v>
+        <v>344.917417812163</v>
       </c>
       <c r="D40" t="n">
-        <v>632.7243904253734</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="E40" t="n">
-        <v>484.8112968429803</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="F40" t="n">
-        <v>484.8112968429803</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G40" t="n">
-        <v>317.6151975578602</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797745</v>
+        <v>826.140538179773</v>
       </c>
       <c r="M40" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910808</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570816</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279801</v>
       </c>
       <c r="P40" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580259</v>
       </c>
       <c r="R40" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832661</v>
       </c>
       <c r="S40" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487566</v>
       </c>
       <c r="T40" t="n">
-        <v>2194.592113392523</v>
+        <v>1977.461080510507</v>
       </c>
       <c r="U40" t="n">
-        <v>1905.516886736721</v>
+        <v>1688.385853854705</v>
       </c>
       <c r="V40" t="n">
-        <v>1650.832398530834</v>
+        <v>1433.701365648818</v>
       </c>
       <c r="W40" t="n">
-        <v>1361.415228493873</v>
+        <v>1144.284195611857</v>
       </c>
       <c r="X40" t="n">
-        <v>1133.425677595856</v>
+        <v>916.2946447138397</v>
       </c>
       <c r="Y40" t="n">
-        <v>1133.425677595856</v>
+        <v>695.5020655703096</v>
       </c>
     </row>
     <row r="41">
@@ -7397,34 +7397,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7485,28 +7485,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>454.6048385560546</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L42" t="n">
-        <v>949.9304447718133</v>
+        <v>671.2000270096656</v>
       </c>
       <c r="M42" t="n">
-        <v>949.9304447718133</v>
+        <v>1268.578514636218</v>
       </c>
       <c r="N42" t="n">
-        <v>1577.52840832642</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="O42" t="n">
-        <v>2129.438138565707</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P42" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q42" t="n">
         <v>2553.061288060775</v>
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>701.4712640439268</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C43" t="n">
-        <v>532.5350811160199</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D43" t="n">
-        <v>382.4184417036842</v>
+        <v>323.8164599824514</v>
       </c>
       <c r="E43" t="n">
-        <v>382.4184417036842</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="F43" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R43" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T43" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U43" t="n">
-        <v>1871.240688199802</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V43" t="n">
-        <v>1621.319028952675</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W43" t="n">
-        <v>1331.901858915714</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X43" t="n">
-        <v>1103.912308017697</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y43" t="n">
-        <v>883.1197288741665</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="44">
@@ -7634,7 +7634,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G44" t="n">
         <v>379.8308874362687</v>
@@ -7643,13 +7643,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J44" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7658,10 +7658,10 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7722,28 +7722,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K45" t="n">
-        <v>579.1554649516142</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="L45" t="n">
-        <v>1074.481071167373</v>
+        <v>740.5562989961526</v>
       </c>
       <c r="M45" t="n">
-        <v>1671.859558793925</v>
+        <v>1337.934786622704</v>
       </c>
       <c r="N45" t="n">
-        <v>1731.250242493492</v>
+        <v>1965.532750177311</v>
       </c>
       <c r="O45" t="n">
-        <v>2283.159972732779</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P45" t="n">
-        <v>2283.159972732779</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q45" t="n">
         <v>2516.421633107662</v>
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>513.8536007400712</v>
+        <v>762.547769317909</v>
       </c>
       <c r="C46" t="n">
-        <v>385.6451336181095</v>
+        <v>593.6115863900021</v>
       </c>
       <c r="D46" t="n">
-        <v>235.5284942057738</v>
+        <v>593.6115863900021</v>
       </c>
       <c r="E46" t="n">
-        <v>235.5284942057738</v>
+        <v>445.698492807609</v>
       </c>
       <c r="F46" t="n">
-        <v>235.5284942057738</v>
+        <v>298.8085453096986</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>298.8085453096986</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797187</v>
+        <v>157.0967141518967</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R46" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.284195611858</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X46" t="n">
-        <v>916.2946447138411</v>
+        <v>983.3403484614391</v>
       </c>
       <c r="Y46" t="n">
-        <v>695.5020655703109</v>
+        <v>762.547769317909</v>
       </c>
     </row>
   </sheetData>
@@ -8289,7 +8289,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>1.13331566353736e-12</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -9647,7 +9647,7 @@
         <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>-3.779622374480749e-13</v>
       </c>
       <c r="O23" t="n">
         <v>0</v>
@@ -23416,25 +23416,25 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>46.45968844822922</v>
       </c>
       <c r="D13" t="n">
-        <v>78.31512318719726</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23473,7 +23473,7 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23653,25 +23653,25 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>147.3599015160451</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>18.49466557218874</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23707,7 +23707,7 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23893,22 +23893,22 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>46.45968844823102</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23950,10 +23950,10 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>3.532239727193229</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24130,22 +24130,22 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>143.6212754172151</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24178,10 +24178,10 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>211.5151132204107</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24367,16 +24367,16 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>34.97276993489153</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -24415,13 +24415,13 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24430,7 +24430,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>196.0358353086633</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24604,22 +24604,22 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>119.4047645948076</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24661,10 +24661,10 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>70.88187642684349</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24850,13 +24850,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,13 +24883,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>145.6085800303829</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -24904,7 +24904,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>186.7544012944545</v>
       </c>
     </row>
     <row r="32">
@@ -25072,28 +25072,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>40.32043864788525</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>31.68313303847354</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25129,7 +25129,7 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25312,25 +25312,25 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>43.72409101823372</v>
       </c>
       <c r="H37" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25366,7 +25366,7 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>144.6341900408528</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25552,10 +25552,10 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>146.8157004124975</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
@@ -25564,7 +25564,7 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -25594,13 +25594,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>148.5844758430725</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25615,7 +25615,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25789,22 +25789,22 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>127.7255247667961</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25834,7 +25834,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25843,7 +25843,7 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>4.715200669171992</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -26020,19 +26020,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>40.32043864788577</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>165.5241382922688</v>
@@ -26041,7 +26041,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>18.61858572567992</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,7 +26068,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>817515.6470952157</v>
+        <v>817515.6470952156</v>
       </c>
     </row>
     <row r="6">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>817515.6470952157</v>
+        <v>817515.6470952156</v>
       </c>
     </row>
     <row r="9">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>817515.6470952155</v>
+        <v>817515.6470952156</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>817515.6470952156</v>
+        <v>817515.6470952157</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>817515.6470952157</v>
+        <v>817515.6470952156</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>817515.6470952157</v>
+        <v>817515.6470952156</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>817515.6470952156</v>
+        <v>817515.6470952157</v>
       </c>
     </row>
   </sheetData>
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>615781.3273982124</v>
+        <v>615781.3273982123</v>
       </c>
       <c r="C2" t="n">
-        <v>615781.3273982122</v>
+        <v>615781.3273982126</v>
       </c>
       <c r="D2" t="n">
-        <v>615781.3273982123</v>
+        <v>615781.3273982126</v>
       </c>
       <c r="E2" t="n">
-        <v>605359.9497675042</v>
+        <v>605359.9497675044</v>
       </c>
       <c r="F2" t="n">
         <v>605359.9497675044</v>
       </c>
       <c r="G2" t="n">
-        <v>605359.9497675041</v>
+        <v>605359.949767504</v>
       </c>
       <c r="H2" t="n">
-        <v>605359.9497675042</v>
+        <v>605359.949767504</v>
       </c>
       <c r="I2" t="n">
-        <v>605359.9497675042</v>
+        <v>605359.9497675045</v>
       </c>
       <c r="J2" t="n">
         <v>605359.9497675041</v>
       </c>
       <c r="K2" t="n">
+        <v>605359.9497675042</v>
+      </c>
+      <c r="L2" t="n">
         <v>605359.9497675044</v>
       </c>
-      <c r="L2" t="n">
+      <c r="M2" t="n">
         <v>605359.9497675042</v>
       </c>
-      <c r="M2" t="n">
-        <v>605359.949767504</v>
-      </c>
       <c r="N2" t="n">
-        <v>605359.949767504</v>
+        <v>605359.9497675042</v>
       </c>
       <c r="O2" t="n">
+        <v>605359.9497675042</v>
+      </c>
+      <c r="P2" t="n">
         <v>605359.9497675041</v>
-      </c>
-      <c r="P2" t="n">
-        <v>605359.9497675042</v>
       </c>
     </row>
     <row r="3">
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073551</v>
+        <v>325412.4618073556</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26384,19 +26384,19 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>1.711553068162175e-10</v>
       </c>
       <c r="J3" t="n">
         <v>217531.2023972775</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>1.170374162029475e-10</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551172</v>
+        <v>85055.02793551187</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>90354.06702314479</v>
+        <v>90354.0670231448</v>
       </c>
       <c r="C4" t="n">
-        <v>90354.06702314476</v>
+        <v>90354.06702314483</v>
       </c>
       <c r="D4" t="n">
-        <v>90354.06702314476</v>
+        <v>90354.06702314483</v>
       </c>
       <c r="E4" t="n">
-        <v>11167.03225179357</v>
+        <v>11167.03225179351</v>
       </c>
       <c r="F4" t="n">
-        <v>11167.03225179355</v>
+        <v>11167.0322517935</v>
       </c>
       <c r="G4" t="n">
         <v>11167.03225179351</v>
       </c>
       <c r="H4" t="n">
-        <v>11167.03225179354</v>
+        <v>11167.03225179351</v>
       </c>
       <c r="I4" t="n">
-        <v>11167.03225179351</v>
+        <v>11167.03225179347</v>
       </c>
       <c r="J4" t="n">
-        <v>11167.03225179346</v>
+        <v>11167.03225179352</v>
       </c>
       <c r="K4" t="n">
         <v>11167.03225179346</v>
       </c>
       <c r="L4" t="n">
+        <v>11167.03225179345</v>
+      </c>
+      <c r="M4" t="n">
         <v>11167.0322517935</v>
       </c>
-      <c r="M4" t="n">
-        <v>11167.03225179351</v>
-      </c>
       <c r="N4" t="n">
-        <v>11167.03225179351</v>
+        <v>11167.03225179352</v>
       </c>
       <c r="O4" t="n">
         <v>11167.03225179351</v>
       </c>
       <c r="P4" t="n">
-        <v>11167.03225179351</v>
+        <v>11167.03225179352</v>
       </c>
     </row>
     <row r="5">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-911251.4259139183</v>
+        <v>-911251.4259139184</v>
       </c>
       <c r="C6" t="n">
-        <v>417493.3198136741</v>
+        <v>417493.3198136748</v>
       </c>
       <c r="D6" t="n">
-        <v>417493.3198136742</v>
+        <v>417493.3198136745</v>
       </c>
       <c r="E6" t="n">
-        <v>167657.9258844485</v>
+        <v>167623.1879590123</v>
       </c>
       <c r="F6" t="n">
-        <v>493070.3876918037</v>
+        <v>493035.649766368</v>
       </c>
       <c r="G6" t="n">
-        <v>493070.3876918035</v>
+        <v>493035.6497663679</v>
       </c>
       <c r="H6" t="n">
-        <v>493070.3876918036</v>
+        <v>493035.6497663676</v>
       </c>
       <c r="I6" t="n">
-        <v>493070.3876918036</v>
+        <v>493035.6497663681</v>
       </c>
       <c r="J6" t="n">
-        <v>275539.185294526</v>
+        <v>275504.4473690903</v>
       </c>
       <c r="K6" t="n">
-        <v>493070.3876918038</v>
+        <v>493035.6497663679</v>
       </c>
       <c r="L6" t="n">
-        <v>493070.3876918036</v>
+        <v>493035.6497663681</v>
       </c>
       <c r="M6" t="n">
-        <v>408015.3597562916</v>
+        <v>407980.621830856</v>
       </c>
       <c r="N6" t="n">
-        <v>493070.3876918033</v>
+        <v>493035.6497663679</v>
       </c>
       <c r="O6" t="n">
-        <v>493070.3876918035</v>
+        <v>493035.6497663679</v>
       </c>
       <c r="P6" t="n">
-        <v>493070.3876918036</v>
+        <v>493035.6497663677</v>
       </c>
     </row>
   </sheetData>
@@ -26692,10 +26692,10 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -26787,19 +26787,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="G4" t="n">
         <v>1172.708288099648</v>
@@ -26814,13 +26814,13 @@
         <v>1172.708288099648</v>
       </c>
       <c r="K4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="L4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="N4" t="n">
         <v>1172.708288099648</v>
@@ -26914,7 +26914,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483754</v>
+        <v>278.1987997483759</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26978,7 +26978,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973553</v>
+        <v>341.3068326973561</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,16 +27033,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973553</v>
+        <v>341.3068326973558</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,7 +27151,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973553</v>
+        <v>341.3068326973561</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27379,16 +27379,16 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>302.0150290037625</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>240.1912326468612</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -27442,10 +27442,10 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27540,22 +27540,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27591,10 +27591,10 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>172.9099390133356</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -27603,7 +27603,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>60.3247588231919</v>
       </c>
     </row>
     <row r="5">
@@ -27613,16 +27613,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>326.7277128755769</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>400</v>
@@ -27664,19 +27664,19 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>26.19303062660008</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -27771,10 +27771,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>101.0155669718951</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -27783,16 +27783,16 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27825,22 +27825,22 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>154.4719609385053</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27850,13 +27850,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>226.4291713029158</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -27865,10 +27865,10 @@
         <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27901,16 +27901,16 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>73.69725818114327</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -28008,28 +28008,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,19 +28056,19 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>147.090979048378</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>213.8754331270854</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -28102,7 +28102,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>-3.979039320256561e-13</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -28141,7 +28141,7 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -28287,10 +28287,10 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>1.319714707885093e-12</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.8733447794294e-12</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -28339,7 +28339,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>-1.105823316955884e-14</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -28384,7 +28384,7 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>8.682195192673605e-13</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -28576,7 +28576,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>-1.70530256582424e-13</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -28810,7 +28810,7 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
@@ -29460,7 +29460,7 @@
         <v>0</v>
       </c>
       <c r="L28" t="n">
-        <v>-3.758651504979533e-12</v>
+        <v>0</v>
       </c>
       <c r="M28" t="n">
         <v>0</v>
@@ -29524,7 +29524,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>-1.250555214937776e-12</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -29578,7 +29578,7 @@
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -29764,7 +29764,7 @@
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>-1.477928890381008e-12</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -29800,7 +29800,7 @@
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>-3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
@@ -29998,7 +29998,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>-3.979039320256561e-13</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -30232,7 +30232,7 @@
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
@@ -30408,7 +30408,7 @@
         <v>0</v>
       </c>
       <c r="L40" t="n">
-        <v>0</v>
+        <v>-1.696776052995119e-12</v>
       </c>
       <c r="M40" t="n">
         <v>0</v>
@@ -31276,43 +31276,43 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H5" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I5" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J5" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K5" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R5" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T5" t="n">
         <v>19.1778794245112</v>
@@ -31361,40 +31361,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I6" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K6" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O6" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q6" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R6" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U6" t="n">
         <v>0.1542136840462215</v>
@@ -31434,13 +31434,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H7" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I7" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J7" t="n">
         <v>138.937596729739</v>
@@ -31449,16 +31449,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L7" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M7" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P7" t="n">
         <v>237.6785118802169</v>
@@ -31467,16 +31467,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U7" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,43 +31513,43 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H8" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I8" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J8" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K8" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R8" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T8" t="n">
         <v>19.1778794245112</v>
@@ -31598,40 +31598,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I9" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K9" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O9" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q9" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R9" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U9" t="n">
         <v>0.1542136840462215</v>
@@ -31671,13 +31671,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H10" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I10" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J10" t="n">
         <v>138.937596729739</v>
@@ -31686,16 +31686,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L10" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M10" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P10" t="n">
         <v>237.6785118802169</v>
@@ -31704,16 +31704,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U10" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,7 +31750,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31762,31 +31762,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
-        <v>272.7569329364655</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>734.2678383622658</v>
       </c>
       <c r="N12" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R12" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31911,25 +31911,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31938,19 +31938,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,7 +31987,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -31999,31 +31999,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32066,34 +32066,34 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422585</v>
+        <v>362.1804684129204</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O15" t="n">
-        <v>361.7519118779092</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P15" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
@@ -32102,13 +32102,13 @@
         <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,25 +32148,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32175,19 +32175,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32309,25 +32309,25 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>638.4800548179295</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N18" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>142.5962444444444</v>
+        <v>454.5879800486398</v>
       </c>
       <c r="P18" t="n">
         <v>561.8765786214698</v>
@@ -32476,7 +32476,7 @@
         <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162566</v>
       </c>
       <c r="M20" t="n">
         <v>965.6463440175675</v>
@@ -32546,28 +32546,28 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M21" t="n">
-        <v>613.2529048371032</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>448.9178583921318</v>
       </c>
       <c r="Q21" t="n">
         <v>139.9817740860215</v>
@@ -32698,7 +32698,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32710,31 +32710,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L23" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S23" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,49 +32777,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H24" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>184.4971006716333</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N24" t="n">
         <v>131.3417120833333</v>
       </c>
       <c r="O24" t="n">
-        <v>483.3274636075166</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32859,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32886,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,7 +32935,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32947,31 +32947,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L26" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S26" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33014,49 +33014,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H27" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473072</v>
+        <v>508.3747716989726</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N27" t="n">
-        <v>320.9147064709964</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O27" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,25 +33096,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33123,19 +33123,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,7 +33172,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33184,31 +33184,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L29" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S29" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33251,10 +33251,10 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H30" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
         <v>101.3076196007749</v>
@@ -33263,37 +33263,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473072</v>
+        <v>270.97169333569</v>
       </c>
       <c r="M30" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q30" t="n">
-        <v>351.4708102230528</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R30" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,25 +33333,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33360,19 +33360,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,7 +33409,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33421,31 +33421,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L32" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S32" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33488,10 +33488,10 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H33" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
         <v>101.3076196007749</v>
@@ -33500,37 +33500,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473072</v>
+        <v>194.5189324111248</v>
       </c>
       <c r="M33" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N33" t="n">
-        <v>366.8427442359106</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R33" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,25 +33570,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33597,19 +33597,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,7 +33646,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33658,31 +33658,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L35" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S35" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33725,10 +33725,10 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H36" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
         <v>99.52238</v>
@@ -33737,37 +33737,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M36" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N36" t="n">
-        <v>405.6377363145776</v>
+        <v>530.4152909475304</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R36" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33807,25 +33807,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33834,19 +33834,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,7 +33883,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33895,31 +33895,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817581</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L38" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S38" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33962,49 +33962,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H39" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
         <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N39" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P39" t="n">
-        <v>195.7502366106279</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>172.8142548092788</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34044,25 +34044,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34071,19 +34071,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,7 +34120,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34132,31 +34132,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L41" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162548</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S41" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34199,49 +34199,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H42" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I42" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>349.3304751113902</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473072</v>
+        <v>233.3139244897919</v>
       </c>
       <c r="M42" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R42" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34281,25 +34281,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34308,19 +34308,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,7 +34357,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34366,34 +34366,34 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J44" t="n">
-        <v>466.7546155663288</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L44" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236497</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S44" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34436,10 +34436,10 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H45" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I45" t="n">
         <v>101.3076196007749</v>
@@ -34448,37 +34448,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N45" t="n">
-        <v>191.332301678856</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>699.0496615458086</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34518,25 +34518,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34545,19 +34545,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34933,31 +34933,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N5" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O5" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P5" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K6" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P6" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q6" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35091,10 +35091,10 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K7" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L7" t="n">
         <v>319.7573721701981</v>
@@ -35106,13 +35106,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O7" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P7" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q7" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N8" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O8" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P8" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,28 +35249,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K9" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P9" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q9" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35328,10 +35328,10 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K10" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L10" t="n">
         <v>319.7573721701981</v>
@@ -35343,13 +35343,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O10" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P10" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q10" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35404,34 +35404,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,31 +35486,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>134.2025531565913</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>592.1338044402476</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R12" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066263</v>
       </c>
       <c r="Q13" t="n">
-        <v>120.4022572999002</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35720,34 +35720,34 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678996</v>
+        <v>224.3390294385614</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O15" t="n">
-        <v>219.1556674334648</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,22 +35802,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35957,25 +35957,25 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>496.3460208959112</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>311.9917356041954</v>
       </c>
       <c r="P18" t="n">
         <v>427.9021712071395</v>
@@ -36124,7 +36124,7 @@
         <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462693</v>
       </c>
       <c r="M20" t="n">
         <v>735.3001107902948</v>
@@ -36194,28 +36194,28 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>471.1188709150848</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>314.9434509778015</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36352,34 +36352,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193505</v>
       </c>
       <c r="O23" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36431,16 +36431,16 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>57.65947400496659</v>
       </c>
       <c r="K24" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
@@ -36449,16 +36449,16 @@
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>340.7312191630721</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,22 +36513,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36589,34 +36589,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O26" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36668,7 +36668,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36677,25 +36677,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.328895167433</v>
+        <v>369.8203919190984</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>189.5729943876631</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,22 +36750,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K28" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191277</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36826,34 +36826,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O29" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36905,34 +36905,34 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.328895167433</v>
+        <v>132.4173135558158</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q30" t="n">
-        <v>211.4890361370313</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,22 +36987,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K31" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060401</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37063,34 +37063,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O32" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37142,7 +37142,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
@@ -37151,25 +37151,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.328895167433</v>
+        <v>55.96455263125056</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>235.5010321525773</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,22 +37224,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K34" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37300,34 +37300,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O35" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37385,28 +37385,28 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>274.2960242312443</v>
+        <v>399.073578864197</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,22 +37461,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K37" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37537,34 +37537,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367776</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O38" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,31 +37619,31 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M39" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P39" t="n">
-        <v>61.77582919629761</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789211</v>
+        <v>27.13475084531481</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,22 +37698,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K40" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191298</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37774,34 +37774,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462675</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O41" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,31 +37853,31 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>211.4890361370312</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.328895167433</v>
+        <v>94.75954470991771</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37935,22 +37935,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K43" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38011,34 +38011,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J44" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O44" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683802</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,34 +38090,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>59.99058959552271</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>556.4534171013642</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,22 +38172,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K46" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>
